--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC7DAE-B3B4-45F1-A485-3CA7BA36E084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B020C8C8-B245-479D-A824-645B08C48243}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B020C8C8-B245-479D-A824-645B08C48243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751A5EB-C82E-499A-8270-36EF50A30F77}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-PhEh-Plot.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751A5EB-C82E-499A-8270-36EF50A30F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FF57B2-B031-468F-8548-93A9734C8557}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
